--- a/documents/data/Games.xlsx
+++ b/documents/data/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\unityProjects\OETableGames\documents\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222C026-BFEF-4EA9-B1F3-7CDADD9812EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AC64A2-C52E-48E9-B530-5648794D4D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Scene_Mahjong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bgm_mahjong</t>
   </si>
   <si>
-    <t>UI_Root_Mahjong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GameName</t>
   </si>
   <si>
@@ -125,6 +117,34 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcedureName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Procedure Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MahjongProcedure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MahjongForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Mahjong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MahjongScene</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -499,9 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -513,122 +535,135 @@
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/documents/data/Games.xlsx
+++ b/documents/data/Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\unityProjects\OETableGames\documents\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AC64A2-C52E-48E9-B530-5648794D4D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DEFA6C-9162-4B9C-B955-32EA3FB259CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -92,18 +92,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Config Path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigPath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MahjongSettings.data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Procedure Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,6 +129,70 @@
   </si>
   <si>
     <t>MahjongScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolves of Miller's Hollow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WerewolvesScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_werewolves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_werewolves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WerewolvesForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WerewolvesProcedure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas hold'em</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TexasScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_texas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_texas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TexasForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TexasProcedure</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,12 +583,11 @@
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -564,45 +611,39 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,18 +669,15 @@
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -648,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
@@ -657,13 +695,68 @@
         <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
